--- a/biology/Zoologie/Atractaspis_fallax/Atractaspis_fallax.xlsx
+++ b/biology/Zoologie/Atractaspis_fallax/Atractaspis_fallax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractaspis fallax est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractaspis fallax est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Éthiopie ;
 au Kenya ;
 en Somalie.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1867 "1866" : Eine vorläufige Übersicht der aus dem Nachlass des Baron Carl von der Decken Stammenden und auf seiner Ostafrikanischen Reise gesammelten Säugethiere und Amphibien. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1866, p. 884-892 (texte intégral).</t>
         </is>
